--- a/academycity/data/avic/datasets/excel/eli/2014.xlsx
+++ b/academycity/data/avic/datasets/excel/eli/2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" state="visible" r:id="rId2"/>
@@ -1149,8 +1149,8 @@
   </sheetPr>
   <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10242,7 +10242,7 @@
   <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15908,7 +15908,7 @@
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18129,7 +18129,7 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21427,7 +21427,7 @@
   <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23681,7 +23681,7 @@
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25894,8 +25894,8 @@
   </sheetPr>
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q170" activeCellId="1" sqref="A2:A3 Q170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25917,26 +25917,26 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>36.32433169</v>
+        <v>11.04649696</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>35.875704224478</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11.2927658709315</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>11.04649696</v>
+        <v>36.32433169</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>11.2927658709315</v>
+        <v>35.875704224478</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27751,7 +27751,7 @@
   <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
